--- a/Docs/Tablas Lab 4 Maquina 1.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E197636-5D23-49AC-AB0F-C814FF421F77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDAF3D-691F-BB46-9729-B69CCE6D4599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25780" windowHeight="15580" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -84,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +517,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -613,7 +604,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -664,34 +655,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2293.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>9248.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>164240.64000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>688699.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,7 +760,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -832,34 +811,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>645.57000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2593.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10749.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>45474.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>190602.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>749434.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,7 +915,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -999,34 +966,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>77.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>171.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>417.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>2158.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>5339.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>12081.23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>31470.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,7 +1090,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1164,7 +1128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1248,7 +1212,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1286,7 +1250,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1328,7 +1292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1365,7 +1329,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1441,7 +1405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1528,7 +1492,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1579,34 +1543,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>44019.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>2996884.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1639,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1708,34 +1651,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>321500.03999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>2615806.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,34 +1669,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>321500.03999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>2615806.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1764,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1914,34 +1815,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>10308.120000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>48337.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>1075527.6100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,7 +1927,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2079,7 +1965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2163,7 +2049,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2201,7 +2087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -2243,7 +2129,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2280,7 +2166,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2356,7 +2242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2444,7 +2330,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2495,34 +2381,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2293.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>9248.66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>164240.64000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>688699.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,7 +2486,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2663,34 +2537,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>44019.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>2996884.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2643,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2828,7 +2681,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -2907,7 +2760,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2945,7 +2798,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -2987,7 +2840,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3024,7 +2877,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3095,7 +2948,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3183,7 +3036,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3234,34 +3087,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>645.57000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2593.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10749.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>45474.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>190602.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>749434.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3351,7 +3192,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3402,34 +3243,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>321500.03999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>2615806.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,7 +3349,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3567,7 +3387,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3646,7 +3466,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3684,7 +3504,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3726,7 +3546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3763,7 +3583,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3834,7 +3654,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3922,7 +3742,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3973,34 +3793,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>77.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>171.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>417.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>2158.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>5339.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>12081.23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>31470.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +3907,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4141,34 +3958,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>10308.120000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>48337.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>1075527.6100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,7 +4070,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4306,7 +4108,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4385,7 +4187,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4423,7 +4225,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4465,7 +4267,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4502,7 +4304,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7286,7 +7088,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7297,7 +7099,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7308,7 +7110,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7319,7 +7121,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7330,7 +7132,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7341,7 +7143,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7374,7 +7176,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7407,7 +7209,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7440,7 +7242,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7473,7 +7275,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8669130" cy="6272696"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7828,18 +7630,18 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,164 +7655,129 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="4">
-        <v>10</v>
+        <v>563.12</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>645.57000000000005</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>2293.0100000000002</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>2593.0700000000002</v>
       </c>
       <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+        <v>77.56</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>9248.66</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
+        <v>10749.37</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+        <v>171.08</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>40</v>
+        <v>38467.51</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+        <v>45474.61</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>417.92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>50</v>
+        <v>164240.64000000001</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>190602.47</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>913.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
       <c r="B7" s="4">
-        <v>60</v>
+        <v>688699.79</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>749434.38</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>2158.0700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
-      <c r="B8" s="4">
-        <v>70</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>5339.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <v>12081.23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <v>31470.36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,162 +7791,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
       <c r="B15" s="4">
-        <v>50</v>
+        <v>44019.46</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>39137.78</v>
       </c>
       <c r="D15" s="4">
-        <v>35</v>
+        <v>2196.17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
       <c r="B16" s="4">
-        <v>60</v>
+        <v>362439.99</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>321500.03999999998</v>
       </c>
       <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+        <v>10308.120000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
       <c r="B17" s="4">
-        <v>70</v>
+        <v>2996884.79</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
+        <v>2615806.89</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+        <v>48337.59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
+        <v>241678.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <v>1075527.6100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8191,12 +7903,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8411,15 +8120,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8444,10 +8157,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Tablas Lab 4 Maquina 1.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DDAF3D-691F-BB46-9729-B69CCE6D4599}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25780" windowHeight="15580" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,15 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,9 +453,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -481,7 +486,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
+              <a:rPr lang="x-none" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Comparación de rendimiento ARRAYLIST</a:t>
@@ -492,6 +497,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -517,7 +523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -575,10 +581,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0802636616438421"/>
+                  <c:y val="0.141954464806193"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -604,7 +617,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -616,34 +629,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +671,7 @@
                   <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.0100000000002</c:v>
+                  <c:v>2293.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9248.66</c:v>
@@ -667,7 +680,7 @@
                   <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164240.64000000001</c:v>
+                  <c:v>164240.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>688699.79</c:v>
@@ -676,7 +689,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -730,11 +743,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0575251590405937"/>
+                  <c:y val="0.0783536639692088"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -760,7 +778,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -772,34 +790,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,10 +829,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>645.57000000000005</c:v>
+                  <c:v>645.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2593.0700000000002</c:v>
+                  <c:v>2593.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10749.37</c:v>
@@ -832,7 +850,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -886,10 +904,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -915,7 +934,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -927,34 +946,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,7 +985,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>36.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.56</c:v>
@@ -981,7 +1000,7 @@
                   <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2158.0700000000002</c:v>
+                  <c:v>2158.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5339.5</c:v>
@@ -996,7 +1015,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1010,12 +1029,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
+        <c:axId val="-862408640"/>
+        <c:axId val="-967959456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696671312"/>
+        <c:axId val="-862408640"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1065,6 +1085,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1090,7 +1111,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1128,16 +1149,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833162896"/>
+        <c:crossAx val="-967959456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1833162896"/>
+        <c:axId val="-967959456"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1187,6 +1209,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1212,7 +1235,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1250,10 +1273,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696671312"/>
+        <c:crossAx val="-862408640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1267,6 +1290,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1292,20 +1316,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1329,16 +1353,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1369,7 +1393,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-419" sz="1800" b="1">
+              <a:rPr lang="x-none" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Comparación de rendimiento LINKED_LIST</a:t>
@@ -1380,6 +1404,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1405,7 +1430,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1467,6 +1492,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1492,7 +1518,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1504,34 +1530,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,13 +1575,13 @@
                   <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2996884.79</c:v>
+                  <c:v>2.99688479E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1614,6 +1640,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1639,7 +1666,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1654,10 +1681,10 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.03999999998</c:v>
+                  <c:v>321500.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2615806.89</c:v>
+                  <c:v>2.61580689E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,16 +1699,16 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.03999999998</c:v>
+                  <c:v>321500.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2615806.89</c:v>
+                  <c:v>2.61580689E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1735,10 +1762,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.117364842474876"/>
+                  <c:y val="-0.0067317654306217"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1764,7 +1798,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1776,34 +1810,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,7 +1852,7 @@
                   <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10308.120000000001</c:v>
+                  <c:v>10308.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48337.59</c:v>
@@ -1827,13 +1861,13 @@
                   <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1075527.6100000001</c:v>
+                  <c:v>1.07552761E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1847,12 +1881,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="696671312"/>
-        <c:axId val="1833162896"/>
+        <c:axId val="-757984496"/>
+        <c:axId val="-757932928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="696671312"/>
+        <c:axId val="-757984496"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1902,6 +1937,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1927,7 +1963,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1965,16 +2001,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833162896"/>
+        <c:crossAx val="-757932928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1833162896"/>
+        <c:axId val="-757932928"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2024,6 +2061,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2049,7 +2087,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2087,10 +2125,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696671312"/>
+        <c:crossAx val="-757984496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2104,6 +2142,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2129,20 +2168,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2166,16 +2205,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2242,7 +2281,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2330,7 +2369,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2342,34 +2381,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,7 +2423,7 @@
                   <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.0100000000002</c:v>
+                  <c:v>2293.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9248.66</c:v>
@@ -2393,7 +2432,7 @@
                   <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164240.64000000001</c:v>
+                  <c:v>164240.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>688699.79</c:v>
@@ -2402,7 +2441,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2486,7 +2525,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2498,34 +2537,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2543,13 +2582,13 @@
                   <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2996884.79</c:v>
+                  <c:v>2.99688479E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2563,11 +2602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="-967977104"/>
+        <c:axId val="-896521040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328118000"/>
+        <c:axId val="-967977104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +2682,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2681,15 +2720,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328121328"/>
+        <c:crossAx val="-896521040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328121328"/>
+        <c:axId val="-896521040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2799,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2798,10 +2837,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328118000"/>
+        <c:crossAx val="-967977104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2840,20 +2879,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2877,16 +2916,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2948,7 +2987,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3036,7 +3075,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3048,34 +3087,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,10 +3126,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>645.57000000000005</c:v>
+                  <c:v>645.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2593.0700000000002</c:v>
+                  <c:v>2593.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10749.37</c:v>
@@ -3108,7 +3147,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3192,7 +3231,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3204,34 +3243,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3246,16 +3285,16 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.03999999998</c:v>
+                  <c:v>321500.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2615806.89</c:v>
+                  <c:v>2.61580689E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3269,11 +3308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="-930511040"/>
+        <c:axId val="-758027520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328118000"/>
+        <c:axId val="-930511040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3349,7 +3388,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3387,15 +3426,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328121328"/>
+        <c:crossAx val="-758027520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328121328"/>
+        <c:axId val="-758027520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,7 +3505,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3504,10 +3543,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328118000"/>
+        <c:crossAx val="-930511040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3546,20 +3585,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3583,16 +3622,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3654,7 +3693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3742,7 +3781,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3754,34 +3793,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3793,7 +3832,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>36.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.56</c:v>
@@ -3808,7 +3847,7 @@
                   <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2158.0700000000002</c:v>
+                  <c:v>2158.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5339.5</c:v>
@@ -3823,7 +3862,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3907,7 +3946,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3919,34 +3958,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3961,7 +4000,7 @@
                   <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10308.120000000001</c:v>
+                  <c:v>10308.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48337.59</c:v>
@@ -3970,13 +4009,13 @@
                   <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1075527.6100000001</c:v>
+                  <c:v>1.07552761E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3990,11 +4029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1328118000"/>
-        <c:axId val="1328121328"/>
+        <c:axId val="-757913200"/>
+        <c:axId val="-757909808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1328118000"/>
+        <c:axId val="-757913200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4109,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4108,15 +4147,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328121328"/>
+        <c:crossAx val="-757909808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1328121328"/>
+        <c:axId val="-757909808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4226,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4225,10 +4264,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1328118000"/>
+        <c:crossAx val="-757913200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4267,20 +4306,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4304,7 +4343,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7085,10 +7124,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7096,10 +7135,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7107,7 +7146,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
@@ -7118,7 +7157,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
@@ -7129,7 +7168,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
@@ -7143,13 +7182,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7176,13 +7215,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7215,7 +7254,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7248,7 +7287,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7281,7 +7320,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7305,26 +7344,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7626,14 +7665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -7641,7 +7680,7 @@
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7655,7 +7694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7669,7 +7708,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7683,7 +7722,7 @@
         <v>77.56</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7697,7 +7736,7 @@
         <v>171.08</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7711,7 +7750,7 @@
         <v>417.92</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7725,7 +7764,7 @@
         <v>913.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7739,7 +7778,7 @@
         <v>2158.0700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7749,7 +7788,7 @@
         <v>5339.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7759,7 +7798,7 @@
         <v>12081.23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7769,7 +7808,7 @@
         <v>31470.36</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -7777,7 +7816,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7791,7 +7830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7805,7 +7844,7 @@
         <v>2196.17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7819,7 +7858,7 @@
         <v>10308.120000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7833,7 +7872,7 @@
         <v>48337.59</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7843,7 +7882,7 @@
         <v>241678.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -7853,7 +7892,7 @@
         <v>1075527.6100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -7861,7 +7900,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -7869,7 +7908,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -7877,7 +7916,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -7885,7 +7924,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>512000</v>
       </c>

--- a/Docs/Tablas Lab 4 Maquina 1.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -581,15 +581,14 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0802636616438421"/>
-                  <c:y val="0.141954464806193"/>
+                  <c:x val="-0.0152265311567063"/>
+                  <c:y val="0.199560922832474"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -743,7 +742,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1029,11 +1029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-862408640"/>
-        <c:axId val="-967959456"/>
+        <c:axId val="422991024"/>
+        <c:axId val="421000640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-862408640"/>
+        <c:axId val="422991024"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1152,12 +1152,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-967959456"/>
+        <c:crossAx val="421000640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-967959456"/>
+        <c:axId val="421000640"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862408640"/>
+        <c:crossAx val="422991024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1640,7 +1640,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0164124283254018"/>
+                  <c:y val="-0.0200120151003337"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1762,8 +1767,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1881,11 +1885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-757984496"/>
-        <c:axId val="-757932928"/>
+        <c:axId val="421045520"/>
+        <c:axId val="421048912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-757984496"/>
+        <c:axId val="421045520"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2004,12 +2008,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-757932928"/>
+        <c:crossAx val="421048912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-757932928"/>
+        <c:axId val="421048912"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2128,7 +2132,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-757984496"/>
+        <c:crossAx val="421045520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2256,6 +2260,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2344,6 +2349,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2500,6 +2506,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2602,11 +2609,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-967977104"/>
-        <c:axId val="-896521040"/>
+        <c:axId val="423030496"/>
+        <c:axId val="423034256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-967977104"/>
+        <c:axId val="423030496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2657,6 +2664,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2723,12 +2731,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-896521040"/>
+        <c:crossAx val="423034256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-896521040"/>
+        <c:axId val="423034256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,6 +2782,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2840,7 +2849,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-967977104"/>
+        <c:crossAx val="423030496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2854,6 +2863,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3308,11 +3318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-930511040"/>
-        <c:axId val="-758027520"/>
+        <c:axId val="421090704"/>
+        <c:axId val="421094464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-930511040"/>
+        <c:axId val="421090704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,12 +3439,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-758027520"/>
+        <c:crossAx val="421094464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-758027520"/>
+        <c:axId val="421094464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3556,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-930511040"/>
+        <c:crossAx val="421090704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4029,11 +4039,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-757913200"/>
-        <c:axId val="-757909808"/>
+        <c:axId val="423070176"/>
+        <c:axId val="423073936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-757913200"/>
+        <c:axId val="423070176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,12 +4160,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-757909808"/>
+        <c:crossAx val="423073936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-757909808"/>
+        <c:axId val="423073936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4267,7 +4277,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-757913200"/>
+        <c:crossAx val="423070176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7127,7 +7137,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0"/>
+    <sheetView zoomScale="165" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7138,7 +7148,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7149,7 +7159,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7182,13 +7192,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8669867" cy="6282267"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7221,7 +7231,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7248,13 +7258,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7287,7 +7297,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7320,7 +7330,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7668,7 +7678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Tablas Lab 4 Maquina 1.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -1029,11 +1029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422991024"/>
-        <c:axId val="421000640"/>
+        <c:axId val="-560317760"/>
+        <c:axId val="-560242768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422991024"/>
+        <c:axId val="-560317760"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1152,12 +1152,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421000640"/>
+        <c:crossAx val="-560242768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421000640"/>
+        <c:axId val="-560242768"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422991024"/>
+        <c:crossAx val="-560317760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1885,11 +1885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421045520"/>
-        <c:axId val="421048912"/>
+        <c:axId val="-559842704"/>
+        <c:axId val="-559838944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421045520"/>
+        <c:axId val="-559842704"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2008,12 +2008,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421048912"/>
+        <c:crossAx val="-559838944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421048912"/>
+        <c:axId val="-559838944"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2132,7 +2132,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421045520"/>
+        <c:crossAx val="-559842704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2344,8 +2344,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2501,12 +2500,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0118039243613474"/>
+                  <c:y val="0.0058797942668625"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2609,12 +2612,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423030496"/>
-        <c:axId val="423034256"/>
+        <c:axId val="-559798848"/>
+        <c:axId val="-559795088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423030496"/>
+        <c:axId val="-559798848"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2731,13 +2735,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423034256"/>
+        <c:crossAx val="-559795088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423034256"/>
+        <c:axId val="-559795088"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2849,7 +2854,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423030496"/>
+        <c:crossAx val="-559798848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2972,6 +2977,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3060,6 +3066,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3216,6 +3223,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3318,12 +3326,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421090704"/>
-        <c:axId val="421094464"/>
+        <c:axId val="-629557120"/>
+        <c:axId val="-629573712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421090704"/>
+        <c:axId val="-629557120"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3373,6 +3382,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3439,13 +3449,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421094464"/>
+        <c:crossAx val="-629573712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421094464"/>
+        <c:axId val="-629573712"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3490,6 +3501,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3556,7 +3568,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421090704"/>
+        <c:crossAx val="-629557120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,6 +3582,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3678,6 +3691,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3761,11 +3775,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3926,11 +3940,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4039,12 +4053,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423070176"/>
-        <c:axId val="423073936"/>
+        <c:axId val="-559761504"/>
+        <c:axId val="-559757744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423070176"/>
+        <c:axId val="-559761504"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4094,6 +4109,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4160,13 +4176,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423073936"/>
+        <c:crossAx val="-559757744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423073936"/>
+        <c:axId val="-559757744"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4211,6 +4228,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4277,7 +4295,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423070176"/>
+        <c:crossAx val="-559761504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4291,6 +4309,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7137,7 +7156,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7148,7 +7167,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7159,7 +7178,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="107" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7170,7 +7189,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7181,7 +7200,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7192,13 +7211,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669867" cy="6282267"/>
+    <xdr:ext cx="8666788" cy="6280727"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7231,7 +7250,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7264,7 +7283,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7291,13 +7310,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7324,13 +7343,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8663983" cy="6285424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/Docs/Tablas Lab 4 Maquina 1.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CCBBD5-6F0A-EE4B-A02C-62C1039796E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -19,16 +20,16 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -79,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,9 +454,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -497,7 +498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -523,7 +523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -587,8 +587,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0152265311567063"/>
-                  <c:y val="0.199560922832474"/>
+                  <c:x val="-1.52265311567063E-2"/>
+                  <c:y val="0.19956092283247401"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -616,7 +616,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -628,34 +628,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +670,7 @@
                   <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.01</c:v>
+                  <c:v>2293.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9248.66</c:v>
@@ -679,7 +679,7 @@
                   <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164240.64</c:v>
+                  <c:v>164240.64000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>688699.79</c:v>
@@ -688,7 +688,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -749,8 +749,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0575251590405937"/>
-                  <c:y val="0.0783536639692088"/>
+                  <c:x val="-5.7525159040593701E-2"/>
+                  <c:y val="7.83536639692088E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -778,7 +778,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -790,34 +790,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,10 +829,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>645.57</c:v>
+                  <c:v>645.57000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2593.07</c:v>
+                  <c:v>2593.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10749.37</c:v>
@@ -850,7 +850,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -908,7 +908,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -934,7 +933,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -946,34 +945,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,7 +984,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.7</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.56</c:v>
@@ -1000,7 +999,7 @@
                   <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2158.07</c:v>
+                  <c:v>2158.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5339.5</c:v>
@@ -1015,7 +1014,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1035,7 +1034,7 @@
       <c:valAx>
         <c:axId val="422991024"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1085,7 +1084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1111,7 +1109,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1149,7 +1147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="421000640"/>
@@ -1159,7 +1157,7 @@
       <c:valAx>
         <c:axId val="421000640"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1209,7 +1207,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1235,7 +1232,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1273,7 +1270,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422991024"/>
@@ -1290,7 +1287,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1316,20 +1312,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1353,16 +1349,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1404,7 +1400,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1430,7 +1425,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1492,7 +1487,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1518,7 +1512,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1530,34 +1524,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,13 +1569,13 @@
                   <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.99688479E6</c:v>
+                  <c:v>2996884.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1642,8 +1636,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0164124283254018"/>
-                  <c:y val="-0.0200120151003337"/>
+                  <c:x val="1.6412428325401799E-2"/>
+                  <c:y val="-2.0012015100333701E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1671,7 +1665,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1686,10 +1680,10 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.04</c:v>
+                  <c:v>321500.03999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.61580689E6</c:v>
+                  <c:v>2615806.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1704,16 +1698,16 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.04</c:v>
+                  <c:v>321500.03999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.61580689E6</c:v>
+                  <c:v>2615806.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1774,7 +1768,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.117364842474876"/>
-                  <c:y val="-0.0067317654306217"/>
+                  <c:y val="-6.7317654306217004E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1802,7 +1796,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1814,34 +1808,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,7 +1850,7 @@
                   <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10308.12</c:v>
+                  <c:v>10308.120000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48337.59</c:v>
@@ -1865,13 +1859,13 @@
                   <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.07552761E6</c:v>
+                  <c:v>1075527.6100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1891,7 +1885,7 @@
       <c:valAx>
         <c:axId val="421045520"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1941,7 +1935,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1967,7 +1960,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2005,7 +1998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="421048912"/>
@@ -2015,7 +2008,7 @@
       <c:valAx>
         <c:axId val="421048912"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2065,7 +2058,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2091,7 +2083,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2129,7 +2121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="421045520"/>
@@ -2146,7 +2138,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2172,20 +2163,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2209,16 +2200,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2260,7 +2251,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2286,7 +2276,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2349,7 +2339,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2375,7 +2364,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2387,34 +2376,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,7 +2418,7 @@
                   <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.01</c:v>
+                  <c:v>2293.0100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9248.66</c:v>
@@ -2438,7 +2427,7 @@
                   <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164240.64</c:v>
+                  <c:v>164240.64000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>688699.79</c:v>
@@ -2447,7 +2436,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2506,7 +2495,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2532,7 +2520,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2544,34 +2532,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,13 +2577,13 @@
                   <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.99688479E6</c:v>
+                  <c:v>2996884.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2664,7 +2652,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2690,7 +2677,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2728,7 +2715,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="423034256"/>
@@ -2782,7 +2769,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2808,7 +2794,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2846,7 +2832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="423030496"/>
@@ -2863,7 +2849,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2889,20 +2874,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2926,16 +2911,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2997,7 +2982,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3085,7 +3070,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3097,34 +3082,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3136,10 +3121,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>645.57</c:v>
+                  <c:v>645.57000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2593.07</c:v>
+                  <c:v>2593.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10749.37</c:v>
@@ -3157,7 +3142,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3241,7 +3226,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3253,34 +3238,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,16 +3280,16 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.04</c:v>
+                  <c:v>321500.03999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.61580689E6</c:v>
+                  <c:v>2615806.89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3398,7 +3383,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3436,7 +3421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="421094464"/>
@@ -3515,7 +3500,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3553,7 +3538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="421090704"/>
@@ -3595,20 +3580,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3632,16 +3617,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3703,7 +3688,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3791,7 +3776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3803,34 +3788,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,7 +3827,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.7</c:v>
+                  <c:v>36.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.56</c:v>
@@ -3857,7 +3842,7 @@
                   <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2158.07</c:v>
+                  <c:v>2158.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5339.5</c:v>
@@ -3872,7 +3857,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3956,7 +3941,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
+                  <a:endParaRPr lang="en-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3968,34 +3953,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000.0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000.0</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000.0</c:v>
+                  <c:v>32000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000.0</c:v>
+                  <c:v>64000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000.0</c:v>
+                  <c:v>128000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000.0</c:v>
+                  <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000.0</c:v>
+                  <c:v>512000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4010,7 +3995,7 @@
                   <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10308.12</c:v>
+                  <c:v>10308.120000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48337.59</c:v>
@@ -4019,13 +4004,13 @@
                   <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.07552761E6</c:v>
+                  <c:v>1075527.6100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4119,7 +4104,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4157,7 +4142,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="423073936"/>
@@ -4236,7 +4221,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES_tradnl"/>
+              <a:endParaRPr lang="en-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4274,7 +4259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES_tradnl"/>
+            <a:endParaRPr lang="en-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="423070176"/>
@@ -4316,20 +4301,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES_tradnl"/>
+          <a:endParaRPr lang="en-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4353,7 +4338,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES_tradnl"/>
+      <a:endParaRPr lang="en-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7134,10 +7119,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="165" workbookViewId="0"/>
+    <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7145,10 +7130,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7156,10 +7141,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7167,10 +7152,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7178,10 +7163,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7192,13 +7177,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669867" cy="6282267"/>
+    <xdr:ext cx="8666788" cy="6280727"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7225,13 +7210,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7258,13 +7243,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7291,13 +7276,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7324,13 +7309,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8669130" cy="6272696"/>
+    <xdr:ext cx="8674919" cy="6288548"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7354,26 +7339,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7675,14 +7660,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -7690,7 +7675,7 @@
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7704,7 +7689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7718,7 +7703,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7732,7 +7717,7 @@
         <v>77.56</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7746,7 +7731,7 @@
         <v>171.08</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7760,7 +7745,7 @@
         <v>417.92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7774,7 +7759,7 @@
         <v>913.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7788,7 +7773,7 @@
         <v>2158.0700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7798,7 +7783,7 @@
         <v>5339.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7808,7 +7793,7 @@
         <v>12081.23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7818,7 +7803,7 @@
         <v>31470.36</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -7826,7 +7811,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7840,7 +7825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7854,7 +7839,7 @@
         <v>2196.17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7868,7 +7853,7 @@
         <v>10308.120000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7882,7 +7867,7 @@
         <v>48337.59</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7892,7 +7877,7 @@
         <v>241678.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -7902,7 +7887,7 @@
         <v>1075527.6100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -7910,7 +7895,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -7918,7 +7903,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -7926,7 +7911,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -7934,7 +7919,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>512000</v>
       </c>
@@ -7952,12 +7937,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="04b510ef1bc187d79b842c792d256c41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9049981c3eb1ee76226ec9e2f8ecd7b4" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -8168,6 +8147,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8178,15 +8163,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03EB27C0-F9F6-4037-B95E-326B818673EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8205,6 +8181,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>

--- a/Docs/Tablas Lab 4 Maquina 1.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Desktop/ESTRUCTURA DE DATOS/LABORATORIOS/LabSorts-S04-G07/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianadiaz/Downloads/LAB 4/LabSorts-S04-G07/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CCBBD5-6F0A-EE4B-A02C-62C1039796E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -20,16 +19,16 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -80,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,9 +453,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -498,6 +497,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -523,7 +523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -581,14 +581,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.52265311567063E-2"/>
-                  <c:y val="0.19956092283247401"/>
+                  <c:x val="0.0298295981355839"/>
+                  <c:y val="0.178041226119719"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -616,7 +617,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -628,34 +629,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +671,7 @@
                   <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.0100000000002</c:v>
+                  <c:v>2293.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9248.66</c:v>
@@ -679,7 +680,7 @@
                   <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164240.64000000001</c:v>
+                  <c:v>164240.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>688699.79</c:v>
@@ -688,7 +689,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -749,8 +750,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7525159040593701E-2"/>
-                  <c:y val="7.83536639692088E-2"/>
+                  <c:x val="-0.0575251590405937"/>
+                  <c:y val="0.0783536639692088"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -778,7 +779,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -790,34 +791,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,10 +830,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>645.57000000000005</c:v>
+                  <c:v>645.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2593.0700000000002</c:v>
+                  <c:v>2593.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10749.37</c:v>
@@ -850,7 +851,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -908,6 +909,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -933,7 +935,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -945,34 +947,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -984,7 +986,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>36.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.56</c:v>
@@ -999,7 +1001,7 @@
                   <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2158.0700000000002</c:v>
+                  <c:v>2158.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5339.5</c:v>
@@ -1014,7 +1016,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EA19-4908-9336-CD0E2C6ECFDA}"/>
             </c:ext>
@@ -1028,13 +1030,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422991024"/>
-        <c:axId val="421000640"/>
+        <c:axId val="148253696"/>
+        <c:axId val="148257088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422991024"/>
+        <c:axId val="148253696"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1084,6 +1086,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1109,7 +1112,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1147,17 +1150,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421000640"/>
+        <c:crossAx val="148257088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421000640"/>
+        <c:axId val="148257088"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1207,6 +1210,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1232,7 +1236,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1270,10 +1274,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422991024"/>
+        <c:crossAx val="148253696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1287,6 +1291,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1312,20 +1317,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1349,16 +1354,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1400,6 +1405,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1425,7 +1431,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1487,6 +1493,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1512,7 +1519,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1524,34 +1531,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,13 +1576,13 @@
                   <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2996884.79</c:v>
+                  <c:v>2.99688479E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1636,8 +1643,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.6412428325401799E-2"/>
-                  <c:y val="-2.0012015100333701E-2"/>
+                  <c:x val="0.0164124283254018"/>
+                  <c:y val="-0.0200120151003337"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1665,7 +1672,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1680,10 +1687,10 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.03999999998</c:v>
+                  <c:v>321500.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2615806.89</c:v>
+                  <c:v>2.61580689E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,16 +1705,16 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.03999999998</c:v>
+                  <c:v>321500.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2615806.89</c:v>
+                  <c:v>2.61580689E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1768,7 +1775,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.117364842474876"/>
-                  <c:y val="-6.7317654306217004E-3"/>
+                  <c:y val="-0.0067317654306217"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1796,7 +1803,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1808,34 +1815,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,7 +1857,7 @@
                   <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10308.120000000001</c:v>
+                  <c:v>10308.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48337.59</c:v>
@@ -1859,13 +1866,13 @@
                   <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1075527.6100000001</c:v>
+                  <c:v>1.07552761E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E4D7-4455-A92B-E398EC107F76}"/>
             </c:ext>
@@ -1879,13 +1886,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421045520"/>
-        <c:axId val="421048912"/>
+        <c:axId val="147923776"/>
+        <c:axId val="147926896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421045520"/>
+        <c:axId val="147923776"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1935,6 +1942,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1960,7 +1968,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1998,17 +2006,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421048912"/>
+        <c:crossAx val="147926896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421048912"/>
+        <c:axId val="147926896"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2058,6 +2066,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2083,7 +2092,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2121,10 +2130,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421045520"/>
+        <c:crossAx val="147923776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2138,6 +2147,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2163,20 +2173,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2200,16 +2210,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2251,6 +2261,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2276,7 +2287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2339,6 +2350,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2364,7 +2376,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2376,34 +2388,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,7 +2430,7 @@
                   <c:v>563.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.0100000000002</c:v>
+                  <c:v>2293.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>9248.66</c:v>
@@ -2427,7 +2439,7 @@
                   <c:v>38467.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164240.64000000001</c:v>
+                  <c:v>164240.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>688699.79</c:v>
@@ -2436,7 +2448,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2495,6 +2507,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2520,7 +2533,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2532,34 +2545,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,13 +2590,13 @@
                   <c:v>362439.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2996884.79</c:v>
+                  <c:v>2.99688479E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B3D4-4A09-BEFF-C643A08A798B}"/>
             </c:ext>
@@ -2597,12 +2610,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423030496"/>
-        <c:axId val="423034256"/>
+        <c:axId val="146837728"/>
+        <c:axId val="146841120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423030496"/>
+        <c:axId val="146837728"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2652,6 +2666,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2677,7 +2692,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2715,16 +2730,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423034256"/>
+        <c:crossAx val="146841120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423034256"/>
+        <c:axId val="146841120"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2769,6 +2785,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2794,7 +2811,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2832,10 +2849,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423030496"/>
+        <c:crossAx val="146837728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2849,6 +2866,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2874,20 +2892,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2911,16 +2929,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2957,6 +2975,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2982,7 +3001,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3045,6 +3064,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3070,7 +3090,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3082,34 +3102,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3121,10 +3141,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>645.57000000000005</c:v>
+                  <c:v>645.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2593.0700000000002</c:v>
+                  <c:v>2593.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10749.37</c:v>
@@ -3142,7 +3162,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3201,6 +3221,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3226,7 +3247,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3238,34 +3259,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3280,16 +3301,16 @@
                   <c:v>39137.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321500.03999999998</c:v>
+                  <c:v>321500.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2615806.89</c:v>
+                  <c:v>2.61580689E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C8DB-422B-A57B-18A87EA382C0}"/>
             </c:ext>
@@ -3303,12 +3324,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="421090704"/>
-        <c:axId val="421094464"/>
+        <c:axId val="147698672"/>
+        <c:axId val="147702064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="421090704"/>
+        <c:axId val="147698672"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3358,6 +3380,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3383,7 +3406,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3421,16 +3444,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421094464"/>
+        <c:crossAx val="147702064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421094464"/>
+        <c:axId val="147702064"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3475,6 +3499,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3500,7 +3525,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3538,10 +3563,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421090704"/>
+        <c:crossAx val="147698672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3555,6 +3580,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3580,20 +3606,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3617,16 +3643,16 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3663,6 +3689,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3688,7 +3715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3746,11 +3773,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3776,7 +3803,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3788,34 +3815,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3827,7 +3854,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36.700000000000003</c:v>
+                  <c:v>36.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>77.56</c:v>
@@ -3842,7 +3869,7 @@
                   <c:v>913.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2158.0700000000002</c:v>
+                  <c:v>2158.07</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5339.5</c:v>
@@ -3857,7 +3884,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -3911,11 +3938,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3941,7 +3968,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-CO"/>
+                  <a:endParaRPr lang="es-ES_tradnl"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3953,34 +3980,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4000</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16000</c:v>
+                  <c:v>16000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32000</c:v>
+                  <c:v>32000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64000</c:v>
+                  <c:v>64000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128000</c:v>
+                  <c:v>128000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>256000</c:v>
+                  <c:v>256000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>512000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,7 +4022,7 @@
                   <c:v>2196.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10308.120000000001</c:v>
+                  <c:v>10308.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48337.59</c:v>
@@ -4004,13 +4031,13 @@
                   <c:v>241678.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1075527.6100000001</c:v>
+                  <c:v>1.07552761E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1191-4146-AA68-44FCE3413D1D}"/>
             </c:ext>
@@ -4024,12 +4051,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="423070176"/>
-        <c:axId val="423073936"/>
+        <c:axId val="32650048"/>
+        <c:axId val="120808016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="423070176"/>
+        <c:axId val="32650048"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4079,6 +4107,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4104,7 +4133,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4142,16 +4171,17 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423073936"/>
+        <c:crossAx val="120808016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="423073936"/>
+        <c:axId val="120808016"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4196,6 +4226,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4221,7 +4252,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CO"/>
+              <a:endParaRPr lang="es-ES_tradnl"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4259,10 +4290,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CO"/>
+            <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423070176"/>
+        <c:crossAx val="32650048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4276,6 +4307,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4301,20 +4333,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CO"/>
+          <a:endParaRPr lang="es-ES_tradnl"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4338,7 +4370,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CO"/>
+      <a:endParaRPr lang="es-ES_tradnl"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -7119,10 +7151,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0"/>
+    <sheetView zoomScale="107" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7130,7 +7162,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0"/>
@@ -7141,7 +7173,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0"/>
@@ -7152,7 +7184,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0"/>
@@ -7163,7 +7195,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0"/>
@@ -7177,13 +7209,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666788" cy="6280727"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7210,13 +7242,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7243,13 +7275,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7276,13 +7308,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7309,13 +7341,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674919" cy="6288548"/>
+    <xdr:ext cx="8682182" cy="6292273"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7339,26 +7371,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D11"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Insertion Sort [ms]" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection Sort [ms]" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Shell Sort [ms]" dataDxfId="6"/>
+    <tableColumn id="1" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="9"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="8"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="7"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A14:D24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A14:D24" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A14:D24"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Insertion Sort [ms]" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Selection Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Shell Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="3"/>
+    <tableColumn id="2" name="Insertion Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="3" name="Selection Sort [ms]" dataDxfId="1"/>
+    <tableColumn id="4" name="Shell Sort [ms]" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7660,14 +7692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" bestFit="1" customWidth="1"/>
@@ -7675,7 +7707,7 @@
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7689,7 +7721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -7703,7 +7735,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -7717,7 +7749,7 @@
         <v>77.56</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
@@ -7731,7 +7763,7 @@
         <v>171.08</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -7745,7 +7777,7 @@
         <v>417.92</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
@@ -7759,7 +7791,7 @@
         <v>913.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
@@ -7773,7 +7805,7 @@
         <v>2158.0700000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
@@ -7783,7 +7815,7 @@
         <v>5339.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
@@ -7793,7 +7825,7 @@
         <v>12081.23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
@@ -7803,7 +7835,7 @@
         <v>31470.36</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>512000</v>
       </c>
@@ -7811,7 +7843,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -7825,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
@@ -7839,7 +7871,7 @@
         <v>2196.17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
@@ -7853,7 +7885,7 @@
         <v>10308.120000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
@@ -7867,7 +7899,7 @@
         <v>48337.59</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
@@ -7877,7 +7909,7 @@
         <v>241678.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
@@ -7887,7 +7919,7 @@
         <v>1075527.6100000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>32000</v>
       </c>
@@ -7895,7 +7927,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>64000</v>
       </c>
@@ -7903,7 +7935,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>128000</v>
       </c>
@@ -7911,7 +7943,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>256000</v>
       </c>
@@ -7919,7 +7951,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>512000</v>
       </c>

--- a/Docs/Tablas Lab 4 Maquina 1.xlsx
+++ b/Docs/Tablas Lab 4 Maquina 1.xlsx
@@ -1030,11 +1030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148253696"/>
-        <c:axId val="148257088"/>
+        <c:axId val="144343232"/>
+        <c:axId val="144345776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148253696"/>
+        <c:axId val="144343232"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1153,12 +1153,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148257088"/>
+        <c:crossAx val="144345776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148257088"/>
+        <c:axId val="144345776"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1277,7 +1277,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148253696"/>
+        <c:crossAx val="144343232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1489,7 +1489,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="power"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1886,11 +1887,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147923776"/>
-        <c:axId val="147926896"/>
+        <c:axId val="192996144"/>
+        <c:axId val="192998992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147923776"/>
+        <c:axId val="192996144"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2009,12 +2010,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147926896"/>
+        <c:crossAx val="192998992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147926896"/>
+        <c:axId val="192998992"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2133,7 +2134,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147923776"/>
+        <c:crossAx val="192996144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2610,11 +2611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146837728"/>
-        <c:axId val="146841120"/>
+        <c:axId val="144253168"/>
+        <c:axId val="144256560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146837728"/>
+        <c:axId val="144253168"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2733,12 +2734,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146841120"/>
+        <c:crossAx val="144256560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146841120"/>
+        <c:axId val="144256560"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2852,7 +2853,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="146837728"/>
+        <c:crossAx val="144253168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3324,11 +3325,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147698672"/>
-        <c:axId val="147702064"/>
+        <c:axId val="150386304"/>
+        <c:axId val="150389696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147698672"/>
+        <c:axId val="150386304"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3447,12 +3448,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147702064"/>
+        <c:crossAx val="150389696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147702064"/>
+        <c:axId val="150389696"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -3566,7 +3567,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147698672"/>
+        <c:crossAx val="150386304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4051,11 +4052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="32650048"/>
-        <c:axId val="120808016"/>
+        <c:axId val="150737600"/>
+        <c:axId val="150740720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32650048"/>
+        <c:axId val="150737600"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4174,12 +4175,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120808016"/>
+        <c:crossAx val="150740720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120808016"/>
+        <c:axId val="150740720"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4293,7 +4294,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32650048"/>
+        <c:crossAx val="150737600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7209,13 +7210,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8682182" cy="6292273"/>
+    <xdr:ext cx="8676355" cy="6290654"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7248,7 +7249,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7281,7 +7282,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7314,7 +7315,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7347,7 +7348,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
